--- a/Test1/chengP1.xlsx
+++ b/Test1/chengP1.xlsx
@@ -567,138 +567,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>6.3947368421052614E-2</v>
+        <v>5.2631578947368416</v>
       </c>
       <c r="B1">
-        <v>0.15347368421052629</v>
+        <v>12.631578947368421</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.0972382048331413E-2</v>
+        <v>1.7261219792865363</v>
       </c>
       <c r="B2">
-        <v>5.0333716915995391E-2</v>
+        <v>4.1426927502876874</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.363813229571984E-2</v>
+        <v>1.9455252918287937</v>
       </c>
       <c r="B3">
-        <v>5.6731517509727616E-2</v>
+        <v>4.6692607003891053</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3.1180496150556028E-2</v>
+        <v>2.5662959794696323</v>
       </c>
       <c r="B4">
-        <v>7.4833190761334462E-2</v>
+        <v>6.1591103507271168</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4.8535286284953391E-2</v>
+        <v>3.9946737683089215</v>
       </c>
       <c r="B5">
-        <v>0.11648468708388812</v>
+        <v>9.5872170439414113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7.515463917525772E-2</v>
+        <v>6.1855670103092786</v>
       </c>
       <c r="B6">
-        <v>0.18037113402061852</v>
+        <v>14.845360824742267</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6.3062283737024202E-2</v>
+        <v>5.1903114186851207</v>
       </c>
       <c r="B7">
-        <v>0.15134948096885811</v>
+        <v>12.456747404844291</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6.2414383561643826E-2</v>
+        <v>5.1369863013698636</v>
       </c>
       <c r="B8">
-        <v>0.1497945205479452</v>
+        <v>12.328767123287673</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4.6911196911196905E-2</v>
+        <v>3.8610038610038613</v>
       </c>
       <c r="B9">
-        <v>0.11258687258687257</v>
+        <v>9.2664092664092674</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4.859999999999999E-2</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>0.11663999999999998</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5.1849217638691311E-2</v>
+        <v>4.2674253200568986</v>
       </c>
       <c r="B11">
-        <v>0.12443812233285916</v>
+        <v>10.241820768136558</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4.2138728323699415E-2</v>
+        <v>3.4682080924855492</v>
       </c>
       <c r="B12">
-        <v>0.10113294797687859</v>
+        <v>8.3236994219653191</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5.5479452054794508E-2</v>
+        <v>4.5662100456621006</v>
       </c>
       <c r="B13">
-        <v>0.13315068493150684</v>
+        <v>10.958904109589042</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.10267605633802816</v>
+        <v>8.4507042253521139</v>
       </c>
       <c r="B14">
-        <v>0.24642253521126756</v>
+        <v>20.281690140845068</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.15187499999999998</v>
+        <v>12.5</v>
       </c>
       <c r="B15">
-        <v>0.36449999999999994</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.15315126050420166</v>
+        <v>12.605042016806724</v>
       </c>
       <c r="B16">
-        <v>0.36756302521008394</v>
+        <v>30.252100840336134</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.31973684210526315</v>
+        <v>26.315789473684212</v>
       </c>
       <c r="B17">
-        <v>0.76736842105263148</v>
+        <v>63.15789473684211</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>65535</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>65535</v>
       </c>
     </row>
   </sheetData>

--- a/Test1/chengP1.xlsx
+++ b/Test1/chengP1.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8280" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="n的上下限" sheetId="2" r:id="rId2"/>
     <sheet name="t的上下限" sheetId="3" r:id="rId3"/>
+    <sheet name="t的上限" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -407,138 +408,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4.75</v>
+        <v>3.5625</v>
       </c>
       <c r="B1">
-        <v>11.4</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14.483333333333333</v>
+        <v>10.862500000000001</v>
       </c>
       <c r="B2">
-        <v>34.76</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12.85</v>
+        <v>9.6374999999999993</v>
       </c>
       <c r="B3">
-        <v>30.84</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9.7416666666666671</v>
+        <v>7.3062500000000004</v>
       </c>
       <c r="B4">
-        <v>23.38</v>
+        <v>17.535</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6.2583333333333337</v>
+        <v>4.6937499999999996</v>
       </c>
       <c r="B5">
-        <v>15.02</v>
+        <v>11.265000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.041666666666667</v>
+        <v>3.03125</v>
       </c>
       <c r="B6">
-        <v>9.6999999999999993</v>
+        <v>7.2750000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4.8166666666666664</v>
+        <v>3.6124999999999998</v>
       </c>
       <c r="B7">
-        <v>11.56</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4.8666666666666663</v>
+        <v>3.65</v>
       </c>
       <c r="B8">
-        <v>11.68</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6.4749999999999996</v>
+        <v>4.8562500000000002</v>
       </c>
       <c r="B9">
-        <v>15.54</v>
+        <v>11.654999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6.25</v>
+        <v>4.6875</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5.8583333333333334</v>
+        <v>4.3937499999999998</v>
       </c>
       <c r="B11">
-        <v>14.06</v>
+        <v>10.545</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7.208333333333333</v>
+        <v>5.40625</v>
       </c>
       <c r="B12">
-        <v>17.3</v>
+        <v>12.975</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5.4749999999999996</v>
+        <v>4.1062500000000002</v>
       </c>
       <c r="B13">
-        <v>13.14</v>
+        <v>9.8550000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2.9583333333333335</v>
+        <v>2.21875</v>
       </c>
       <c r="B14">
-        <v>7.1</v>
+        <v>5.3250000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B15">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.9833333333333334</v>
+        <v>1.4875</v>
       </c>
       <c r="B16">
-        <v>4.76</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.95</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="B17">
-        <v>2.2799999999999998</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
@@ -713,4 +714,110 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>7.0175438596491224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.3014959723820483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.5940337224383918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.4217279726261762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5.3262316910785614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8.2474226804123703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6.9204152249134951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6.8493150684931505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5.1480051480051481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5.6899004267425317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4.6242774566473992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6.0882800608828003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11.267605633802816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16.806722689075631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>35.087719298245617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>65535</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>